--- a/Análisis de la utilidad de los dispositivos garmin para los ciclistas de montaña en el cantón Santo Domingo.xlsx
+++ b/Análisis de la utilidad de los dispositivos garmin para los ciclistas de montaña en el cantón Santo Domingo.xlsx
@@ -49,34 +49,34 @@
     <t>Notas</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Análisis de la utilidad de los dispositivos garmin para los ciclistas de montaña en el cantón Santo Domingo</t>
+  </si>
+  <si>
+    <t>Cañizares Galarza, Fredy Pablo,Intriago Hidalgo, Ubinter Alexander</t>
+  </si>
+  <si>
+    <t>https://dspace.uniandes.edu.ec/handle/123456789/15080</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>TECNOLOGÍA DISPOSITIVO, FRECUENCIA CARDIACA</t>
+  </si>
+  <si>
+    <t>El avance de la tecnología dirigida a facilitar la producción tanto en cantidad como en calidad en las diferentes actividades productivas; estos progresos científicos y tecnológicos vienen expresándose en el ámbito deportivo con la implementación de herramientas tecnológicas cuya finalidad es agilitar diversos procesos de control que se realizaban en forma manual; en el caso del ciclismo dicha recopilación de datos era poco efectiva, por tal razón, la vinculación de la tecnología con el ciclismo está desarrollándose de manera acelerada, obteniendo como finalidad el uso, manejo y protección de la información que genera cada ciclista de montaña durante los recorridos de entrenamiento, así como, en las diversas competencias. De esta manera, el análisis de la utilidad de los Dispositivos Garmin por los Ciclistas de Montaña tras las encuestas realizadas demostró que dicho dispositivo es el más completo ya que posee y recopila información necesaria para sus entrenamientos como son, cadencia (C), velocidad (V), distancia, GPS, desnivel, frecuencia cardiaca (FC), etc. El Dispositivo Garmin proporciona resultados fiables para el ciclista, ya que, tiene sensores precisos y específicos, los mismos que garantizan funciones tales como seguridad física, de red, informática y lógica siendo observables tanto en el Dispositivo Garmin como también sincronizando su celular con el aplicativo Garmin Connect.</t>
+  </si>
+  <si>
+    <t>El avance de la tecnología dirigida a facilitar la producción tanto en cantidad como en calidad en las diferentes actividades productivas</t>
+  </si>
+  <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Análisis de la utilidad de los dispositivos garmin para los ciclistas de montaña en el cantón Santo Domingo</t>
-  </si>
-  <si>
-    <t>Cañizares Galarza, Fredy Pablo,Intriago Hidalgo, Ubinter Alexander</t>
-  </si>
-  <si>
-    <t>https://dspace.uniandes.edu.ec/handle/123456789/15080</t>
-  </si>
-  <si>
-    <t>COL</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>TECNOLOGÍA DISPOSITIVO, FRECUENCIA CARDIACA</t>
-  </si>
-  <si>
-    <t>El avance de la tecnología dirigida a facilitar la producción tanto en cantidad como en calidad en las diferentes actividades productivas; estos progresos científicos y tecnológicos vienen expresándose en el ámbito deportivo con la implementación de herramientas tecnológicas cuya finalidad es agilitar diversos procesos de control que se realizaban en forma manual; en el caso del ciclismo dicha recopilación de datos era poco efectiva, por tal razón, la vinculación de la tecnología con el ciclismo está desarrollándose de manera acelerada, obteniendo como finalidad el uso, manejo y protección de la información que genera cada ciclista de montaña durante los recorridos de entrenamiento, así como, en las diversas competencias. De esta manera, el análisis de la utilidad de los Dispositivos Garmin por los Ciclistas de Montaña tras las encuestas realizadas demostró que dicho dispositivo es el más completo ya que posee y recopila información necesaria para sus entrenamientos como son, cadencia (C), velocidad (V), distancia, GPS, desnivel, frecuencia cardiaca (FC), etc. El Dispositivo Garmin proporciona resultados fiables para el ciclista, ya que, tiene sensores precisos y específicos, los mismos que garantizan funciones tales como seguridad física, de red, informática y lógica siendo observables tanto en el Dispositivo Garmin como también sincronizando su celular con el aplicativo Garmin Connect.</t>
-  </si>
-  <si>
-    <t>El avance de la tecnología dirigida a facilitar la producción tanto en cantidad como en calidad en las diferentes actividades productivas</t>
   </si>
 </sst>
 </file>
@@ -171,37 +171,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Análisis de la utilidad de los dispositivos garmin para los ciclistas de montaña en el cantón Santo Domingo.xlsx
+++ b/Análisis de la utilidad de los dispositivos garmin para los ciclistas de montaña en el cantón Santo Domingo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Id Articulo</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Notas</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>2</t>
@@ -171,37 +174,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
